--- a/nop-report/nop-report-demo/src/main/resources/_vfs/nop/report/demo/base/11-打印条码和二维码.xpt.xlsx
+++ b/nop-report/nop-report-demo/src/main/resources/_vfs/nop/report/demo/base/11-打印条码和二维码.xpt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-report\nop-report-demo\src\main\resources\_vfs\nop\report\demo\base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A65570-D551-44AA-AD3F-8E3E5F3B4197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33119B2-032C-48BD-B70A-C52141538047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{392982CA-C4D8-434C-9678-96E43A892558}"/>
   </bookViews>
